--- a/doc/help_dialogs/Input_files/modbus.xlsx
+++ b/doc/help_dialogs/Input_files/modbus.xlsx
@@ -14,40 +14,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>MODBUS</t>
-  </si>
-  <si>
-    <t>tn:The MODBUS device corresponds to input channels1 and 2.. The MODBUS_34 extra device adds input channels 3 and 4.</t>
-  </si>
-  <si>
-    <t>tn:</t>
-  </si>
-  <si>
-    <t>tn:Inputs with slave id set to 0 are turned off.</t>
-  </si>
-  <si>
-    <t>tn:Few devices hold data as 4 byte floats in two registers. Tick the Float flag in this case.</t>
-  </si>
-  <si>
-    <t>tn:Modbus function 3 "read holding register" is the standard. Modbus function 4 triggers the use of "read input register". Input registers (fct 4) usually are from 30000-39999.</t>
-  </si>
-  <si>
-    <t>tn:Most devices hold data in 2 byte integer registers. A temperature of 145.2C is often sent as 1452. In that case you have to set the divider to "x/10".</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Dividers 1/10 and 1/100 can be set to recreate decimals of floats transported as integers multiplied by 10 or 100. Eg. a value of 145.2 might be transmitted as 1452, which is turned back into 145.2 by the 1/10 divider.</t>
+  </si>
+  <si>
+    <t>Temperature readings are automatically converted based on the specified unit per input channel.</t>
+  </si>
+  <si>
+    <t>If a Float or BCD decoder is set, two succeeding 16bit registers are requested and the received 4 bytes interpreted using the byte and word order as specified by the corresponding flag.</t>
+  </si>
+  <si>
+    <t>The PID Control dialog can operate a connected PID slave using the given PID registers to set the p-i-d parameters and the set value (SV). MODBUS commands can be specified to turn the PID slave on and off from that PID Control dialog. See the help page in the Events Dialog for documentation of available MODBUS write commands.</t>
+  </si>
+  <si>
+    <t>Function 1 (Read Coils): registers 0 to 65535 corresponding to numbers 000001 to 065536
+Function 2 (Read Discrete Inputs): registers 0 to 65535 corresponding to numbers 100001 to 165536
+Function 3 (Read Multiple Holding Registers): registers 0 to 65535 corresponding to numbers 400001 to 465536
+Function 4 (Read Input Registers): registers 0 to 65535 corresponding to numbers 300001 to 365536</t>
+  </si>
+  <si>
+    <t>The MODBUS serial protocols RTU, ASCII, and Binary is using the specified serial port parameters. The MODBUS IP protocol on TCP and UDP is respecting the host IP and port.</t>
+  </si>
+  <si>
+    <t>MODBUS SETTINGS</t>
+  </si>
+  <si>
+    <t>The Scan button opens a simple MODBUS scanner to search for data holding registers in the connected device.</t>
+  </si>
+  <si>
+    <t>PORTS CONFIGURATION</t>
+  </si>
+  <si>
+    <t>The inputs 1+2 configure the MODBUS device, inputs 3+4 configure the MODBUS_34 device and so on.
+Inputs with the slave id set to 0 are turned off.</t>
+  </si>
+  <si>
+    <t>Refer to the User Manual of your MODBUS device for information specific to the setup required for your device.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,10 +92,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,52 +417,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/modbus.xlsx
+++ b/doc/help_dialogs/Input_files/modbus.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Modbus" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Modbus" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +32,7 @@
   </si>
   <si>
     <t xml:space="preserve">The inputs 1+2 configure the MODBUS device, inputs 3+4 configure the MODBUS_34 device and so on.
-Inputs with the slave id set to 0 are turned off.</t>
+Inputs with the device id set to 0 are turned off.</t>
   </si>
   <si>
     <t xml:space="preserve">Function 1 (Read Coils): registers 0 to 65535 corresponding to numbers 000001 to 065536
@@ -50,7 +50,7 @@
     <t xml:space="preserve">If a 32bit decoder is set two succeeding 16bit registers are requested and the received 4 bytes are interpreted using the byte and word order as specified by the corresponding flag.</t>
   </si>
   <si>
-    <t xml:space="preserve">The PID Control dialog can operate a connected PID slave using the given PID registers to set the p-i-d parameters and the set value (SV). MODBUS commands can be specified to turn the PID slave on and off from that PID Control dialog. See the help page in the Events Dialog for documentation of available MODBUS write commands.</t>
+    <t xml:space="preserve">The PID Control dialog can operate a connected PID using the given PID registers to set the p-i-d parameters and the set value (SV). MODBUS commands can be specified to turn the PID  on and off from that PID Control dialog. See the help page in the Events Dialog for documentation of available MODBUS write commands.</t>
   </si>
   <si>
     <t xml:space="preserve">The Scan button opens a simple MODBUS scanner to search for data holding registers in the connected device.</t>
@@ -139,20 +139,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -168,80 +172,186 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="87.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="69.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
